--- a/Documentos/CRONOGRAMA - PROJETO ATHENA.xlsx
+++ b/Documentos/CRONOGRAMA - PROJETO ATHENA.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programing\Project Athena\Documentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\php\projeto-athena\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C481E21D-EDAA-4ECA-AD78-011A06A9C016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C95454AF-C390-4B3D-AA0D-043B77076E5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9984709C-C237-45B3-B008-D2F69F35A1CE}"/>
   </bookViews>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -120,7 +118,7 @@
     <t>APRESENTAÇÃO</t>
   </si>
   <si>
-    <t>EQUIPE: ??????</t>
+    <t>EQUIPE: WARRIORS.NET</t>
   </si>
 </sst>
 </file>
@@ -785,7 +783,7 @@
   <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
